--- a/docs/data/quiz/e4v2/gas.xlsx
+++ b/docs/data/quiz/e4v2/gas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/0d14353b491619df/Desktop/Desktop/BYU-I/Courses/Math 221B/Exams/Exam Data_new/Version 2 Exams/E4_Version 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craigaj\Documents\GitHub\M221R\data\quiz\e4v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F19868D-7245-44D1-B5B1-8805A02A199C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{002D7A9C-8E77-4DDE-A17E-ED94C0B094A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{1C21FE01-1872-412F-804C-D253FD72C05C}"/>
+    <workbookView xWindow="-28920" yWindow="-13230" windowWidth="29040" windowHeight="16440" xr2:uid="{1C21FE01-1872-412F-804C-D253FD72C05C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,40 +34,274 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Temperature</t>
-  </si>
-  <si>
-    <t>Residential Natural Gas consumption</t>
-  </si>
-  <si>
-    <t>Natural Gas consumption in North Carolina in units of millions of cubic feet</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>http://people.duke.edu/~rnau/NC_natural_gas_consumption_data_and_sources.xlsx</t>
   </si>
   <si>
-    <t>Variables</t>
-  </si>
-  <si>
-    <t>Source Data:</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Temperature in Celsius: Recorded in airports of 3 large cities in North Carolina (Charlotte, Greensboro and Raleigh)</t>
+    <t>Jan 2009</t>
+  </si>
+  <si>
+    <t>Feb 2009</t>
+  </si>
+  <si>
+    <t>Mar 2009</t>
+  </si>
+  <si>
+    <t>Apr 2009</t>
+  </si>
+  <si>
+    <t>May 2009</t>
+  </si>
+  <si>
+    <t>Jun 2009</t>
+  </si>
+  <si>
+    <t>Jul 2009</t>
+  </si>
+  <si>
+    <t>Aug 2009</t>
+  </si>
+  <si>
+    <t>Sep 2009</t>
+  </si>
+  <si>
+    <t>Oct 2009</t>
+  </si>
+  <si>
+    <t>Nov 2009</t>
+  </si>
+  <si>
+    <t>Dec 2009</t>
+  </si>
+  <si>
+    <t>Jan 2010</t>
+  </si>
+  <si>
+    <t>Feb 2010</t>
+  </si>
+  <si>
+    <t>Mar 2010</t>
+  </si>
+  <si>
+    <t>Apr 2010</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>Jun 2010</t>
+  </si>
+  <si>
+    <t>Jul 2010</t>
+  </si>
+  <si>
+    <t>Aug 2010</t>
+  </si>
+  <si>
+    <t>Sep 2010</t>
+  </si>
+  <si>
+    <t>Oct 2010</t>
+  </si>
+  <si>
+    <t>Nov 2010</t>
+  </si>
+  <si>
+    <t>Dec 2010</t>
+  </si>
+  <si>
+    <t>Jan 2011</t>
+  </si>
+  <si>
+    <t>Feb 2011</t>
+  </si>
+  <si>
+    <t>Mar 2011</t>
+  </si>
+  <si>
+    <t>Apr 2011</t>
+  </si>
+  <si>
+    <t>May 2011</t>
+  </si>
+  <si>
+    <t>Jun 2011</t>
+  </si>
+  <si>
+    <t>Jul 2011</t>
+  </si>
+  <si>
+    <t>Aug 2011</t>
+  </si>
+  <si>
+    <t>Sep 2011</t>
+  </si>
+  <si>
+    <t>Oct 2011</t>
+  </si>
+  <si>
+    <t>Nov 2011</t>
+  </si>
+  <si>
+    <t>Dec 2011</t>
+  </si>
+  <si>
+    <t>Jan 2012</t>
+  </si>
+  <si>
+    <t>Feb 2012</t>
+  </si>
+  <si>
+    <t>Mar 2012</t>
+  </si>
+  <si>
+    <t>Apr 2012</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>Jun 2012</t>
+  </si>
+  <si>
+    <t>Jul 2012</t>
+  </si>
+  <si>
+    <t>Aug 2012</t>
+  </si>
+  <si>
+    <t>Sep 2012</t>
+  </si>
+  <si>
+    <t>Oct 2012</t>
+  </si>
+  <si>
+    <t>Nov 2012</t>
+  </si>
+  <si>
+    <t>Dec 2012</t>
+  </si>
+  <si>
+    <t>Jan 2013</t>
+  </si>
+  <si>
+    <t>Feb 2013</t>
+  </si>
+  <si>
+    <t>Mar 2013</t>
+  </si>
+  <si>
+    <t>Apr 2013</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>Jun 2013</t>
+  </si>
+  <si>
+    <t>Jul 2013</t>
+  </si>
+  <si>
+    <t>Aug 2013</t>
+  </si>
+  <si>
+    <t>Sep 2013</t>
+  </si>
+  <si>
+    <t>Oct 2013</t>
+  </si>
+  <si>
+    <t>Nov 2013</t>
+  </si>
+  <si>
+    <t>Dec 2013</t>
+  </si>
+  <si>
+    <t>Jan 2014</t>
+  </si>
+  <si>
+    <t>Feb 2014</t>
+  </si>
+  <si>
+    <t>Mar 2014</t>
+  </si>
+  <si>
+    <t>Apr 2014</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>Jun 2014</t>
+  </si>
+  <si>
+    <t>Jul 2014</t>
+  </si>
+  <si>
+    <t>Aug 2014</t>
+  </si>
+  <si>
+    <t>Sep 2014</t>
+  </si>
+  <si>
+    <t>Oct 2014</t>
+  </si>
+  <si>
+    <t>Nov 2014</t>
+  </si>
+  <si>
+    <t>Dec 2014</t>
+  </si>
+  <si>
+    <t>nat_gas_consumption</t>
+  </si>
+  <si>
+    <t>comments</t>
+  </si>
+  <si>
+    <t>avg_daily_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nat_gas_consumption = Residential natural gas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        millions of cubic feet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        consumption in North Carolina in units of</t>
+  </si>
+  <si>
+    <t>variables:</t>
+  </si>
+  <si>
+    <t>month = month data were collected</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg_daily_temp = Temperature in Celsius: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Recorded in airports of 3 large cities in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        North Carolina (Charlotte, Greensboro and </t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Raleigh)</t>
+  </si>
+  <si>
+    <t>source:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +312,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -109,11 +349,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,204 +673,224 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BE2F4D8-2025-452F-A9A1-979771D0487A}">
-  <dimension ref="A1:E73"/>
+  <dimension ref="A1:D73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.1796875" style="2"/>
-    <col min="2" max="2" width="12.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.26953125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>6</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="5">
-        <v>39814</v>
-      </c>
-      <c r="B2" s="6">
+      <c r="B2" s="4">
         <v>9</v>
       </c>
       <c r="C2" s="1">
         <v>14881</v>
       </c>
-      <c r="E2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A3" s="5">
-        <v>39845</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="B3" s="4">
         <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>10616</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="5">
-        <v>39873</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="D3" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
         <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>8259</v>
       </c>
-      <c r="E4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" s="5">
-        <v>39904</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="D4" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4">
         <v>23</v>
       </c>
       <c r="C5" s="1">
         <v>3243</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" s="5">
-        <v>39934</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="D5" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4">
         <v>26</v>
       </c>
       <c r="C6" s="1">
         <v>1315</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" s="5">
-        <v>39965</v>
-      </c>
-      <c r="B7" s="6">
+      <c r="D6" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4">
         <v>31</v>
       </c>
       <c r="C7" s="1">
         <v>754</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" s="5">
-        <v>39995</v>
-      </c>
-      <c r="B8" s="6">
+      <c r="D7" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
         <v>31</v>
       </c>
       <c r="C8" s="1">
         <v>962</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5">
-        <v>40026</v>
-      </c>
-      <c r="B9" s="6">
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4">
         <v>32</v>
       </c>
       <c r="C9" s="1">
         <v>947</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" s="5">
-        <v>40057</v>
-      </c>
-      <c r="B10" s="6">
+      <c r="D9" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4">
         <v>27</v>
       </c>
       <c r="C10" s="1">
         <v>1128</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" s="5">
-        <v>40087</v>
-      </c>
-      <c r="B11" s="6">
+      <c r="D10" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4">
         <v>21</v>
       </c>
       <c r="C11" s="1">
         <v>2760</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" s="5">
-        <v>40118</v>
-      </c>
-      <c r="B12" s="6">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4">
         <v>17</v>
       </c>
       <c r="C12" s="1">
         <v>6420</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" s="5">
-        <v>40148</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="D12" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="4">
         <v>9</v>
       </c>
       <c r="C13" s="1">
         <v>14358</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" s="5">
-        <v>40179</v>
-      </c>
-      <c r="B14" s="6">
+      <c r="D13" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="4">
         <v>9</v>
       </c>
       <c r="C14" s="1">
         <v>17239</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" s="5">
-        <v>40210</v>
-      </c>
-      <c r="B15" s="6">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="4">
         <v>8</v>
       </c>
       <c r="C15" s="1">
         <v>14708</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" s="5">
-        <v>40238</v>
-      </c>
-      <c r="B16" s="6">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="4">
         <v>17</v>
       </c>
       <c r="C16" s="1">
@@ -634,10 +898,10 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17" s="5">
-        <v>40269</v>
-      </c>
-      <c r="B17" s="6">
+      <c r="A17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
         <v>25</v>
       </c>
       <c r="C17" s="1">
@@ -645,10 +909,10 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18" s="5">
-        <v>40299</v>
-      </c>
-      <c r="B18" s="6">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" s="4">
         <v>27</v>
       </c>
       <c r="C18" s="1">
@@ -656,10 +920,10 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19" s="5">
-        <v>40330</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="4">
         <v>33</v>
       </c>
       <c r="C19" s="1">
@@ -667,10 +931,10 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>40360</v>
-      </c>
-      <c r="B20" s="6">
+      <c r="A20" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="4">
         <v>34</v>
       </c>
       <c r="C20" s="1">
@@ -678,10 +942,10 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>40391</v>
-      </c>
-      <c r="B21" s="6">
+      <c r="A21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21" s="4">
         <v>32</v>
       </c>
       <c r="C21" s="1">
@@ -689,10 +953,10 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>40422</v>
-      </c>
-      <c r="B22" s="6">
+      <c r="A22" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="4">
         <v>31</v>
       </c>
       <c r="C22" s="1">
@@ -700,10 +964,10 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>40452</v>
-      </c>
-      <c r="B23" s="6">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="4">
         <v>24</v>
       </c>
       <c r="C23" s="1">
@@ -711,10 +975,10 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24" s="5">
-        <v>40483</v>
-      </c>
-      <c r="B24" s="6">
+      <c r="A24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="4">
         <v>17</v>
       </c>
       <c r="C24" s="1">
@@ -722,10 +986,10 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25" s="5">
-        <v>40513</v>
-      </c>
-      <c r="B25" s="6">
+      <c r="A25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="4">
         <v>6</v>
       </c>
       <c r="C25" s="1">
@@ -733,10 +997,10 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26" s="5">
-        <v>40544</v>
-      </c>
-      <c r="B26" s="6">
+      <c r="A26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="4">
         <v>8</v>
       </c>
       <c r="C26" s="1">
@@ -744,10 +1008,10 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27" s="5">
-        <v>40575</v>
-      </c>
-      <c r="B27" s="6">
+      <c r="A27" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
         <v>15</v>
       </c>
       <c r="C27" s="1">
@@ -755,10 +1019,10 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28" s="5">
-        <v>40603</v>
-      </c>
-      <c r="B28" s="6">
+      <c r="A28" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4">
         <v>17</v>
       </c>
       <c r="C28" s="1">
@@ -766,10 +1030,10 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29" s="5">
-        <v>40634</v>
-      </c>
-      <c r="B29" s="6">
+      <c r="A29" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4">
         <v>24</v>
       </c>
       <c r="C29" s="1">
@@ -777,10 +1041,10 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30" s="5">
-        <v>40664</v>
-      </c>
-      <c r="B30" s="6">
+      <c r="A30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4">
         <v>27</v>
       </c>
       <c r="C30" s="1">
@@ -788,10 +1052,10 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31" s="5">
-        <v>40695</v>
-      </c>
-      <c r="B31" s="6">
+      <c r="A31" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4">
         <v>33</v>
       </c>
       <c r="C31" s="1">
@@ -799,10 +1063,10 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32" s="5">
-        <v>40725</v>
-      </c>
-      <c r="B32" s="6">
+      <c r="A32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4">
         <v>34</v>
       </c>
       <c r="C32" s="1">
@@ -810,10 +1074,10 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33" s="5">
-        <v>40756</v>
-      </c>
-      <c r="B33" s="6">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4">
         <v>32</v>
       </c>
       <c r="C33" s="1">
@@ -821,10 +1085,10 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34" s="5">
-        <v>40787</v>
-      </c>
-      <c r="B34" s="6">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4">
         <v>27</v>
       </c>
       <c r="C34" s="1">
@@ -832,10 +1096,10 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35" s="5">
-        <v>40817</v>
-      </c>
-      <c r="B35" s="6">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4">
         <v>21</v>
       </c>
       <c r="C35" s="1">
@@ -843,10 +1107,10 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36" s="5">
-        <v>40848</v>
-      </c>
-      <c r="B36" s="6">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4">
         <v>18</v>
       </c>
       <c r="C36" s="1">
@@ -854,10 +1118,10 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37" s="5">
-        <v>40878</v>
-      </c>
-      <c r="B37" s="6">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4">
         <v>15</v>
       </c>
       <c r="C37" s="1">
@@ -865,10 +1129,10 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38" s="5">
-        <v>40909</v>
-      </c>
-      <c r="B38" s="6">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4">
         <v>13</v>
       </c>
       <c r="C38" s="1">
@@ -876,10 +1140,10 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39" s="5">
-        <v>40940</v>
-      </c>
-      <c r="B39" s="6">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4">
         <v>14</v>
       </c>
       <c r="C39" s="1">
@@ -887,10 +1151,10 @@
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40" s="5">
-        <v>40969</v>
-      </c>
-      <c r="B40" s="6">
+      <c r="A40" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4">
         <v>22</v>
       </c>
       <c r="C40" s="1">
@@ -898,10 +1162,10 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41" s="5">
-        <v>41000</v>
-      </c>
-      <c r="B41" s="6">
+      <c r="A41" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4">
         <v>22</v>
       </c>
       <c r="C41" s="1">
@@ -909,10 +1173,10 @@
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42" s="5">
-        <v>41030</v>
-      </c>
-      <c r="B42" s="6">
+      <c r="A42" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4">
         <v>28</v>
       </c>
       <c r="C42" s="1">
@@ -920,10 +1184,10 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43" s="5">
-        <v>41061</v>
-      </c>
-      <c r="B43" s="6">
+      <c r="A43" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4">
         <v>30</v>
       </c>
       <c r="C43" s="1">
@@ -931,10 +1195,10 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44" s="5">
-        <v>41091</v>
-      </c>
-      <c r="B44" s="6">
+      <c r="A44" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4">
         <v>34</v>
       </c>
       <c r="C44" s="1">
@@ -942,10 +1206,10 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45" s="5">
-        <v>41122</v>
-      </c>
-      <c r="B45" s="6">
+      <c r="A45" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4">
         <v>30</v>
       </c>
       <c r="C45" s="1">
@@ -953,10 +1217,10 @@
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46" s="5">
-        <v>41153</v>
-      </c>
-      <c r="B46" s="6">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
         <v>27</v>
       </c>
       <c r="C46" s="1">
@@ -964,10 +1228,10 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47" s="5">
-        <v>41183</v>
-      </c>
-      <c r="B47" s="6">
+      <c r="A47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
         <v>21</v>
       </c>
       <c r="C47" s="1">
@@ -975,10 +1239,10 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48" s="5">
-        <v>41214</v>
-      </c>
-      <c r="B48" s="6">
+      <c r="A48" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
         <v>15</v>
       </c>
       <c r="C48" s="1">
@@ -986,10 +1250,10 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49" s="5">
-        <v>41244</v>
-      </c>
-      <c r="B49" s="6">
+      <c r="A49" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
         <v>14</v>
       </c>
       <c r="C49" s="1">
@@ -997,10 +1261,10 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50" s="5">
-        <v>41275</v>
-      </c>
-      <c r="B50" s="6">
+      <c r="A50" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4">
         <v>12</v>
       </c>
       <c r="C50" s="1">
@@ -1008,10 +1272,10 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51" s="5">
-        <v>41306</v>
-      </c>
-      <c r="B51" s="6">
+      <c r="A51" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4">
         <v>11</v>
       </c>
       <c r="C51" s="1">
@@ -1019,10 +1283,10 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52" s="5">
-        <v>41334</v>
-      </c>
-      <c r="B52" s="6">
+      <c r="A52" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B52" s="4">
         <v>13</v>
       </c>
       <c r="C52" s="1">
@@ -1030,10 +1294,10 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53" s="5">
-        <v>41365</v>
-      </c>
-      <c r="B53" s="6">
+      <c r="A53" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B53" s="4">
         <v>22</v>
       </c>
       <c r="C53" s="1">
@@ -1041,10 +1305,10 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54" s="5">
-        <v>41395</v>
-      </c>
-      <c r="B54" s="6">
+      <c r="A54" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4">
         <v>24</v>
       </c>
       <c r="C54" s="1">
@@ -1052,10 +1316,10 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55" s="5">
-        <v>41426</v>
-      </c>
-      <c r="B55" s="6">
+      <c r="A55" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4">
         <v>29</v>
       </c>
       <c r="C55" s="1">
@@ -1063,10 +1327,10 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56" s="5">
-        <v>41456</v>
-      </c>
-      <c r="B56" s="6">
+      <c r="A56" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" s="4">
         <v>30</v>
       </c>
       <c r="C56" s="1">
@@ -1074,10 +1338,10 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57" s="5">
-        <v>41487</v>
-      </c>
-      <c r="B57" s="6">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B57" s="4">
         <v>29</v>
       </c>
       <c r="C57" s="1">
@@ -1085,10 +1349,10 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58" s="5">
-        <v>41518</v>
-      </c>
-      <c r="B58" s="6">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B58" s="4">
         <v>27</v>
       </c>
       <c r="C58" s="1">
@@ -1096,10 +1360,10 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59" s="5">
-        <v>41548</v>
-      </c>
-      <c r="B59" s="6">
+      <c r="A59" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="4">
         <v>22</v>
       </c>
       <c r="C59" s="1">
@@ -1107,10 +1371,10 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60" s="5">
-        <v>41579</v>
-      </c>
-      <c r="B60" s="6">
+      <c r="A60" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B60" s="4">
         <v>15</v>
       </c>
       <c r="C60" s="1">
@@ -1118,10 +1382,10 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61" s="5">
-        <v>41609</v>
-      </c>
-      <c r="B61" s="6">
+      <c r="A61" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B61" s="4">
         <v>14</v>
       </c>
       <c r="C61" s="1">
@@ -1129,10 +1393,10 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62" s="5">
-        <v>41640</v>
-      </c>
-      <c r="B62" s="6">
+      <c r="A62" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="4">
         <v>8</v>
       </c>
       <c r="C62" s="1">
@@ -1140,10 +1404,10 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63" s="5">
-        <v>41671</v>
-      </c>
-      <c r="B63" s="6">
+      <c r="A63" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="4">
         <v>12</v>
       </c>
       <c r="C63" s="1">
@@ -1151,10 +1415,10 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64" s="5">
-        <v>41699</v>
-      </c>
-      <c r="B64" s="6">
+      <c r="A64" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B64" s="4">
         <v>15</v>
       </c>
       <c r="C64" s="1">
@@ -1162,10 +1426,10 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="5">
-        <v>41730</v>
-      </c>
-      <c r="B65" s="6">
+      <c r="A65" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B65" s="4">
         <v>22</v>
       </c>
       <c r="C65" s="1">
@@ -1173,10 +1437,10 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="5">
-        <v>41760</v>
-      </c>
-      <c r="B66" s="6">
+      <c r="A66" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B66" s="4">
         <v>27</v>
       </c>
       <c r="C66" s="1">
@@ -1184,10 +1448,10 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="5">
-        <v>41791</v>
-      </c>
-      <c r="B67" s="6">
+      <c r="A67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B67" s="4">
         <v>31</v>
       </c>
       <c r="C67" s="1">
@@ -1195,10 +1459,10 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="5">
-        <v>41821</v>
-      </c>
-      <c r="B68" s="6">
+      <c r="A68" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B68" s="4">
         <v>31</v>
       </c>
       <c r="C68" s="1">
@@ -1206,10 +1470,10 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="5">
-        <v>41852</v>
-      </c>
-      <c r="B69" s="6">
+      <c r="A69" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B69" s="4">
         <v>29</v>
       </c>
       <c r="C69" s="1">
@@ -1217,10 +1481,10 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="5">
-        <v>41883</v>
-      </c>
-      <c r="B70" s="6">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" s="4">
         <v>26</v>
       </c>
       <c r="C70" s="1">
@@ -1228,10 +1492,10 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="5">
-        <v>41913</v>
-      </c>
-      <c r="B71" s="6">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" s="4">
         <v>24</v>
       </c>
       <c r="C71" s="1">
@@ -1239,10 +1503,10 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="5">
-        <v>41944</v>
-      </c>
-      <c r="B72" s="6">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" s="4">
         <v>14</v>
       </c>
       <c r="C72" s="1">
@@ -1250,10 +1514,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="5">
-        <v>41974</v>
-      </c>
-      <c r="B73" s="6">
+      <c r="A73" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B73" s="4">
         <v>12</v>
       </c>
       <c r="C73" s="1">
@@ -1261,6 +1525,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
